--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_6_matched_error_tables_first.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST/AR2_50_6_matched_error_tables_first.xlsx
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.5702918925841234</v>
+        <v>-0.1349883557924783</v>
       </c>
       <c r="C2">
-        <v>1.595834877378132</v>
+        <v>1.93267810644422</v>
       </c>
       <c r="D2">
-        <v>13.73319792928844</v>
+        <v>16.79600653627128</v>
       </c>
       <c r="E2">
-        <v>3.705832960251775</v>
+        <v>4.098293124737575</v>
       </c>
       <c r="F2">
-        <v>3.752114515958744</v>
+        <v>4.19246071033399</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,22 +464,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.5656807464006393</v>
+        <v>0.1207088239491281</v>
       </c>
       <c r="C3">
-        <v>1.436473439186615</v>
+        <v>1.786104686133971</v>
       </c>
       <c r="D3">
-        <v>8.180639322365884</v>
+        <v>11.46089906083781</v>
       </c>
       <c r="E3">
-        <v>2.860181693942866</v>
+        <v>3.385394963787507</v>
       </c>
       <c r="F3">
-        <v>2.876519207858052</v>
+        <v>3.46679172473507</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,22 +487,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.5642456857717587</v>
+        <v>-0.5555709582211426</v>
       </c>
       <c r="C4">
-        <v>1.084812499651004</v>
+        <v>1.050109431406426</v>
       </c>
       <c r="D4">
-        <v>4.672438350309394</v>
+        <v>4.446450755259711</v>
       </c>
       <c r="E4">
-        <v>2.161582371853868</v>
+        <v>2.108660891480589</v>
       </c>
       <c r="F4">
-        <v>2.143818477643593</v>
+        <v>2.087000281350939</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.02313352762744799</v>
+        <v>0.07663410097718948</v>
       </c>
       <c r="C5">
-        <v>0.6628993769566123</v>
+        <v>0.7265600105831413</v>
       </c>
       <c r="D5">
-        <v>1.7349034849771</v>
+        <v>1.828123001807706</v>
       </c>
       <c r="E5">
-        <v>1.317157350120744</v>
+        <v>1.352080989367022</v>
       </c>
       <c r="F5">
-        <v>1.355134676349854</v>
+        <v>1.386898099900304</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,22 +533,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1318390913171965</v>
+        <v>0.04069671201648461</v>
       </c>
       <c r="C6">
-        <v>0.7022001570612905</v>
+        <v>0.7470070225631975</v>
       </c>
       <c r="D6">
-        <v>1.662676819159824</v>
+        <v>1.696764068754185</v>
       </c>
       <c r="E6">
-        <v>1.289448261528869</v>
+        <v>1.302598966971103</v>
       </c>
       <c r="F6">
-        <v>1.322167246505906</v>
+        <v>1.339708950721457</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0926765161978797</v>
+        <v>-0.003406094425567046</v>
       </c>
       <c r="C7">
-        <v>0.5463090134121359</v>
+        <v>0.6048042399408757</v>
       </c>
       <c r="D7">
-        <v>0.5441754505033602</v>
+        <v>0.6518029153055619</v>
       </c>
       <c r="E7">
-        <v>0.7376824862387342</v>
+        <v>0.8073431211731242</v>
       </c>
       <c r="F7">
-        <v>0.755838793287764</v>
+        <v>0.8321828350431602</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05513478499836789</v>
+        <v>0.08389501441541836</v>
       </c>
       <c r="C8">
-        <v>0.5929928803030642</v>
+        <v>0.5881369787635709</v>
       </c>
       <c r="D8">
-        <v>0.6319338548618182</v>
+        <v>0.6090337700840233</v>
       </c>
       <c r="E8">
-        <v>0.7949426739468817</v>
+        <v>0.7804061571284681</v>
       </c>
       <c r="F8">
-        <v>0.8208623581843247</v>
+        <v>0.8013291602599671</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
